--- a/myTemplate/userTemplate.xlsx
+++ b/myTemplate/userTemplate.xlsx
@@ -18,20 +18,17 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>id</t>
   </si>
   <si>
     <t>birthday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -74,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -380,23 +378,26 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
